--- a/medicine/Sexualité et sexologie/Affaire_Pierre_Cabarat/Affaire_Pierre_Cabarat.xlsx
+++ b/medicine/Sexualité et sexologie/Affaire_Pierre_Cabarat/Affaire_Pierre_Cabarat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'affaire Pierre Cabarat est une affaire judiciaire mettant en cause un prêtre catholique français du diocèse de Blois, Pierre Cabarat, pour des faits d'agression sexuelle sur mineur. L’affaire a été classée sans suite car la plainte concerne des faits prescrits, cependant l'ouverture d'un procès canonique a été demandé à la congrégation pour la doctrine de la foi.
@@ -512,11 +524,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Cabarat, né en 1963, a été aumônier de l’Équipe Nationale des Jeannettes, puis aumônier général des scouts Unitaires de France (SUF) et enfin prêtre de la Paroisse Trinité Sainte Madeleine de Vendôme[1].
-La cellule d'écoute du diocèse de Blois a reçu un témoignage et portant soupçon d'agression sexuelle sur mineur[2]. Jean-Pierre Batut, évêque de Blois, a transmis l’information au Procureur de la République. Pierre Cabarat, curé des paroisses de Vendôme, a fait l’objet d’une convocation auprès des services de polices à la suite de ce signalement[3].
-L’affaire a été classée sans suite car la plainte concerne des faits prescrits[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Cabarat, né en 1963, a été aumônier de l’Équipe Nationale des Jeannettes, puis aumônier général des scouts Unitaires de France (SUF) et enfin prêtre de la Paroisse Trinité Sainte Madeleine de Vendôme.
+La cellule d'écoute du diocèse de Blois a reçu un témoignage et portant soupçon d'agression sexuelle sur mineur. Jean-Pierre Batut, évêque de Blois, a transmis l’information au Procureur de la République. Pierre Cabarat, curé des paroisses de Vendôme, a fait l’objet d’une convocation auprès des services de polices à la suite de ce signalement.
+L’affaire a été classée sans suite car la plainte concerne des faits prescrits.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Réaction de l'évêque de Blois</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 13 novembre 2022, Jean-Pierre Batut, évêque de Blois, s'est rendu à Vendôme, dans la paroisse de Pierre Cabarat, pour l'annoncer aux paroissiens[5]. À titre conservatoire, c’est-à-dire pendant le temps de l’enquête, Jean-Pierre Batut a demandé à Pierre Cabarat de quitter ses missions actuelles et de ne plus exercer de ministère public[4].
-Jean-Pierre Batut a pris la décision de saisir la Congrégation pour la Doctrine de la Foi et de demander l’ouverture d’un procès canonique[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 13 novembre 2022, Jean-Pierre Batut, évêque de Blois, s'est rendu à Vendôme, dans la paroisse de Pierre Cabarat, pour l'annoncer aux paroissiens. À titre conservatoire, c’est-à-dire pendant le temps de l’enquête, Jean-Pierre Batut a demandé à Pierre Cabarat de quitter ses missions actuelles et de ne plus exercer de ministère public.
+Jean-Pierre Batut a pris la décision de saisir la Congrégation pour la Doctrine de la Foi et de demander l’ouverture d’un procès canonique.
 </t>
         </is>
       </c>
